--- a/biology/Zoologie/Liste_de_coléoptères_endémiques_de_France/Liste_de_coléoptères_endémiques_de_France.xlsx
+++ b/biology/Zoologie/Liste_de_coléoptères_endémiques_de_France/Liste_de_coléoptères_endémiques_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_col%C3%A9opt%C3%A8res_end%C3%A9miques_de_France</t>
+          <t>Liste_de_coléoptères_endémiques_de_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une espèce biologique est dite endémique d'une zone géographique lorsqu'elle n'existe que dans cette zone à l'état spontané.
 Cet article liste des espèces de coléoptères endémiques de France : départements métropolitains (dont la Corse), départements d'outre-mer (Guadeloupe, Martinique, Guyane et Réunion) et collectivités d'outre-mer à statut proche du statut départemental (Saint-Pierre-et-Miquelon, Mayotte, Saint-Martin et Saint-Barthélemy), mais n'inclut pas les anciens territoires d'outre-mer de Wallis-et-Futuna (collectivité territoriale), de la Polynésie française et de la Nouvelle-Calédonie (pays d'outre-mer) et des îles Éparses, de l'île de Clipperton et des Terres australes et antarctiques françaises (districts d'outre-mer). 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_col%C3%A9opt%C3%A8res_end%C3%A9miques_de_France</t>
+          <t>Liste_de_coléoptères_endémiques_de_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Aphodiidés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nimbus marianii</t>
         </is>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_col%C3%A9opt%C3%A8res_end%C3%A9miques_de_France</t>
+          <t>Liste_de_coléoptères_endémiques_de_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Bothridéridés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anommatus gallicus</t>
         </is>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_col%C3%A9opt%C3%A8res_end%C3%A9miques_de_France</t>
+          <t>Liste_de_coléoptères_endémiques_de_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Buprestidés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Acmaeoderella (Euacmaeoderella) corsica
 Agrilus lacus (Provence), décrit en 1994
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_col%C3%A9opt%C3%A8res_end%C3%A9miques_de_France</t>
+          <t>Liste_de_coléoptères_endémiques_de_France</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Carabidés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Agostinia gaudini
 Agostinia gineti
@@ -734,7 +754,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_col%C3%A9opt%C3%A8res_end%C3%A9miques_de_France</t>
+          <t>Liste_de_coléoptères_endémiques_de_France</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -752,7 +772,9 @@
           <t>Cérambycidés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Brachyta borni
 Clytus robertae
@@ -766,7 +788,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_col%C3%A9opt%C3%A8res_end%C3%A9miques_de_France</t>
+          <t>Liste_de_coléoptères_endémiques_de_France</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -784,7 +806,9 @@
           <t>Curculionidae (charançons)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Cratopus (21 espèces endémiques de la Réunion)
 Otiorhynchus bigoti (Alpes), décrit en 1983.
@@ -800,7 +824,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_col%C3%A9opt%C3%A8res_end%C3%A9miques_de_France</t>
+          <t>Liste_de_coléoptères_endémiques_de_France</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -818,7 +842,9 @@
           <t>Dytiscidae</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Siettitia balsetensis - Éteint
 Siettitia avenionensis</t>
@@ -831,7 +857,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_de_col%C3%A9opt%C3%A8res_end%C3%A9miques_de_France</t>
+          <t>Liste_de_coléoptères_endémiques_de_France</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -849,7 +875,9 @@
           <t>Léiodidés (incluant Catopidae = Cholevidae)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Agathidium (Chaetoceble) pilosum
 Antrocharis querilhaci (Ariège ; grottes)
@@ -906,7 +934,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_de_col%C3%A9opt%C3%A8res_end%C3%A9miques_de_France</t>
+          <t>Liste_de_coléoptères_endémiques_de_France</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -924,7 +952,9 @@
           <t>Psélaphidés</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Antrobythus leclerci (cavernicole)
 Glyphobythus guignardi (Alpes ; grottes)
@@ -940,7 +970,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_de_col%C3%A9opt%C3%A8res_end%C3%A9miques_de_France</t>
+          <t>Liste_de_coléoptères_endémiques_de_France</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -958,7 +988,9 @@
           <t>Scarabéidés</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Anoxia (Mesanoxia) corsicana
 Balbera gracilis (Mayotte)
@@ -984,7 +1016,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_de_col%C3%A9opt%C3%A8res_end%C3%A9miques_de_France</t>
+          <t>Liste_de_coléoptères_endémiques_de_France</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1002,7 +1034,9 @@
           <t>Staphylinidés (staphylins)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Imirus lavagnei (Hérault)
 Imirus permirus (Corse)
@@ -1017,7 +1051,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_de_col%C3%A9opt%C3%A8res_end%C3%A9miques_de_France</t>
+          <t>Liste_de_coléoptères_endémiques_de_France</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1035,7 +1069,9 @@
           <t>Ténébrionidés</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Asida ascoensis (Corse)
 Asida lepidoptera (Corse)
